--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/15/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.3819</v>
+        <v>16.52139999999999</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.9577</v>
+        <v>-7.113100000000004</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.50350000000001</v>
+        <v>-22.37970000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.842</v>
+        <v>-21.74160000000001</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.54650000000001</v>
+        <v>-21.5788</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.759699999999998</v>
+        <v>-7.894199999999999</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.34539999999999</v>
+        <v>-22.38720000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -743,10 +743,10 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.124099999999993</v>
+        <v>-8.214599999999997</v>
       </c>
       <c r="E18" t="n">
-        <v>16.5497</v>
+        <v>16.4812</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.4826</v>
+        <v>16.4964</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.638799999999996</v>
+        <v>-7.863100000000002</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.50539999999999</v>
+        <v>16.53089999999999</v>
       </c>
     </row>
     <row r="28">
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.764800000000003</v>
+        <v>-6.8291</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.797799999999999</v>
+        <v>-7.855799999999999</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,10 +964,10 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.728</v>
+        <v>-7.522399999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>17.0179</v>
+        <v>17.05710000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.65579999999999</v>
+        <v>-19.80599999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>15.9849</v>
+        <v>16.07119999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.505699999999996</v>
+        <v>-8.461199999999993</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.54740000000001</v>
+        <v>16.4387</v>
       </c>
     </row>
     <row r="43">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.47059999999999</v>
+        <v>16.5152</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.41879999999999</v>
+        <v>16.45639999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.910099999999996</v>
+        <v>-8.072499999999989</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.21540000000001</v>
+        <v>-22.2678</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.43340000000001</v>
+        <v>16.32890000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.28020000000001</v>
+        <v>17.285</v>
       </c>
     </row>
     <row r="66">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.52809999999998</v>
+        <v>-21.5634</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.819499999999993</v>
+        <v>-6.875799999999999</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.46910000000001</v>
+        <v>17.50770000000002</v>
       </c>
     </row>
     <row r="74">
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.5082</v>
+        <v>-7.523599999999999</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.83139999999999</v>
+        <v>-20.85969999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.35059999999998</v>
+        <v>-20.56069999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.82300000000001</v>
+        <v>-21.81910000000001</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.16850000000001</v>
+        <v>-22.0729</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.986199999999997</v>
+        <v>-7.944399999999994</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.267199999999997</v>
+        <v>-7.283299999999997</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.2026</v>
+        <v>16.30879999999999</v>
       </c>
     </row>
     <row r="91">
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>19.03770000000002</v>
+        <v>19.05740000000003</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.28950000000002</v>
+        <v>18.23240000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.805100000000002</v>
+        <v>-7.6725</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.237900000000007</v>
+        <v>-8.370100000000008</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,10 +2154,10 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.8436</v>
+        <v>-7.7802</v>
       </c>
       <c r="E101" t="n">
-        <v>16.76439999999998</v>
+        <v>16.668</v>
       </c>
     </row>
     <row r="102">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.907600000000001</v>
+        <v>-8.015300000000002</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
